--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrrc4b-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrrc4b-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Lrrc4b</t>
+  </si>
+  <si>
+    <t>Ptprs</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lrrc4b</t>
-  </si>
-  <si>
-    <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.066997</v>
       </c>
       <c r="I2">
-        <v>0.07602638801180391</v>
+        <v>0.08421548817316486</v>
       </c>
       <c r="J2">
-        <v>0.1049476413136274</v>
+        <v>0.1212189746948583</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N2">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O2">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P2">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q2">
-        <v>0.0793635407495</v>
+        <v>0.09594946322966665</v>
       </c>
       <c r="R2">
-        <v>0.476181244497</v>
+        <v>0.5756967793779999</v>
       </c>
       <c r="S2">
-        <v>0.004682449151237673</v>
+        <v>0.007358015972134318</v>
       </c>
       <c r="T2">
-        <v>0.005001691249943852</v>
+        <v>0.008335798315158951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.066997</v>
       </c>
       <c r="I3">
-        <v>0.07602638801180391</v>
+        <v>0.08421548817316486</v>
       </c>
       <c r="J3">
-        <v>0.1049476413136274</v>
+        <v>0.1212189746948583</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>39.975685</v>
       </c>
       <c r="O3">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P3">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q3">
         <v>0.2975834408827778</v>
@@ -641,10 +641,10 @@
         <v>2.678250967945</v>
       </c>
       <c r="S3">
-        <v>0.01755742393830542</v>
+        <v>0.02282059364748126</v>
       </c>
       <c r="T3">
-        <v>0.02813169268284474</v>
+        <v>0.03877971999476835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.066997</v>
       </c>
       <c r="I4">
-        <v>0.07602638801180391</v>
+        <v>0.08421548817316486</v>
       </c>
       <c r="J4">
-        <v>0.1049476413136274</v>
+        <v>0.1212189746948583</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N4">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O4">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P4">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q4">
-        <v>0.1567269977256667</v>
+        <v>0.15388071951</v>
       </c>
       <c r="R4">
-        <v>1.410542979531</v>
+        <v>1.38492647559</v>
       </c>
       <c r="S4">
-        <v>0.009246893353623465</v>
+        <v>0.0118005536857242</v>
       </c>
       <c r="T4">
-        <v>0.0148159982358028</v>
+        <v>0.02005303520077902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -735,10 +735,10 @@
         <v>0.066997</v>
       </c>
       <c r="I5">
-        <v>0.07602638801180391</v>
+        <v>0.08421548817316486</v>
       </c>
       <c r="J5">
-        <v>0.1049476413136274</v>
+        <v>0.1212189746948583</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N5">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O5">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P5">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q5">
-        <v>0.4559047699395</v>
+        <v>0.4080030538885</v>
       </c>
       <c r="R5">
-        <v>2.735428619637</v>
+        <v>2.448018323331</v>
       </c>
       <c r="S5">
-        <v>0.02689838284542348</v>
+        <v>0.03128827286928421</v>
       </c>
       <c r="T5">
-        <v>0.02873227274236032</v>
+        <v>0.03544606769756164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0.066997</v>
       </c>
       <c r="I6">
-        <v>0.07602638801180391</v>
+        <v>0.08421548817316486</v>
       </c>
       <c r="J6">
-        <v>0.1049476413136274</v>
+        <v>0.1212189746948583</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N6">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O6">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P6">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q6">
-        <v>0.053746199346</v>
+        <v>0.030272862438</v>
       </c>
       <c r="R6">
-        <v>0.4837157941140001</v>
+        <v>0.2724557619420001</v>
       </c>
       <c r="S6">
-        <v>0.003171025928697795</v>
+        <v>0.002321515908930666</v>
       </c>
       <c r="T6">
-        <v>0.005080832315088962</v>
+        <v>0.003945021689725755</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>0.066997</v>
       </c>
       <c r="I7">
-        <v>0.07602638801180391</v>
+        <v>0.08421548817316486</v>
       </c>
       <c r="J7">
-        <v>0.1049476413136274</v>
+        <v>0.1212189746948583</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N7">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O7">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P7">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q7">
-        <v>0.2452578310365555</v>
+        <v>0.1124911267472222</v>
       </c>
       <c r="R7">
-        <v>2.207320479329</v>
+        <v>1.012420140725</v>
       </c>
       <c r="S7">
-        <v>0.01447021279451607</v>
+        <v>0.00862653608961021</v>
       </c>
       <c r="T7">
-        <v>0.02318515408758667</v>
+        <v>0.01465933179686457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -921,10 +921,10 @@
         <v>0.485697</v>
       </c>
       <c r="I8">
-        <v>0.8267337771430614</v>
+        <v>0.9157845118268352</v>
       </c>
       <c r="J8">
-        <v>0.7608214478723655</v>
+        <v>0.8787810253051417</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N8">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O8">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P8">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q8">
-        <v>0.8630229782992501</v>
+        <v>1.0433832807945</v>
       </c>
       <c r="R8">
-        <v>3.452091913197</v>
+        <v>4.173533123177999</v>
       </c>
       <c r="S8">
-        <v>0.05091835840579468</v>
+        <v>0.0800132756007968</v>
       </c>
       <c r="T8">
-        <v>0.03625992857924951</v>
+        <v>0.06043064964517452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -983,10 +983,10 @@
         <v>0.485697</v>
       </c>
       <c r="I9">
-        <v>0.8267337771430614</v>
+        <v>0.9157845118268352</v>
       </c>
       <c r="J9">
-        <v>0.7608214478723655</v>
+        <v>0.8787810253051417</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>39.975685</v>
       </c>
       <c r="O9">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P9">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q9">
         <v>3.2360117129075</v>
@@ -1013,10 +1013,10 @@
         <v>19.416070277445</v>
       </c>
       <c r="S9">
-        <v>0.1909247011335536</v>
+        <v>0.2481579893010293</v>
       </c>
       <c r="T9">
-        <v>0.2039416502377665</v>
+        <v>0.2811348815961759</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.485697</v>
       </c>
       <c r="I10">
-        <v>0.8267337771430614</v>
+        <v>0.9157845118268352</v>
       </c>
       <c r="J10">
-        <v>0.7608214478723655</v>
+        <v>0.8787810253051417</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N10">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O10">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P10">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q10">
-        <v>1.7042964449385</v>
+        <v>1.673345160765</v>
       </c>
       <c r="R10">
-        <v>10.225778669631</v>
+        <v>10.04007096459</v>
       </c>
       <c r="S10">
-        <v>0.1005534955559545</v>
+        <v>0.1283227649781748</v>
       </c>
       <c r="T10">
-        <v>0.1074090764531951</v>
+        <v>0.1453751516920574</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1107,10 +1107,10 @@
         <v>0.485697</v>
       </c>
       <c r="I11">
-        <v>0.8267337771430614</v>
+        <v>0.9157845118268352</v>
       </c>
       <c r="J11">
-        <v>0.7608214478723655</v>
+        <v>0.8787810253051417</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N11">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O11">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P11">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q11">
-        <v>4.95764539558425</v>
+        <v>4.43674774835775</v>
       </c>
       <c r="R11">
-        <v>19.830581582337</v>
+        <v>17.746990993431</v>
       </c>
       <c r="S11">
-        <v>0.2925010937700266</v>
+        <v>0.3402380763569876</v>
       </c>
       <c r="T11">
-        <v>0.2082955755354148</v>
+        <v>0.2569674573861904</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.485697</v>
       </c>
       <c r="I12">
-        <v>0.8267337771430614</v>
+        <v>0.9157845118268352</v>
       </c>
       <c r="J12">
-        <v>0.7608214478723655</v>
+        <v>0.8787810253051417</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N12">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O12">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P12">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q12">
-        <v>0.5844523139190001</v>
+        <v>0.329196198357</v>
       </c>
       <c r="R12">
-        <v>3.506713883514001</v>
+        <v>1.975177190142</v>
       </c>
       <c r="S12">
-        <v>0.03448268834031522</v>
+        <v>0.02524486124199362</v>
       </c>
       <c r="T12">
-        <v>0.03683366438708844</v>
+        <v>0.02859956713934549</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>0.485697</v>
       </c>
       <c r="I13">
-        <v>0.8267337771430614</v>
+        <v>0.9157845118268352</v>
       </c>
       <c r="J13">
-        <v>0.7608214478723655</v>
+        <v>0.8787810253051417</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,400 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N13">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O13">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P13">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q13">
-        <v>2.6670073158715</v>
+        <v>1.2232622980375</v>
       </c>
       <c r="R13">
-        <v>16.002043895229</v>
+        <v>7.339573788225001</v>
       </c>
       <c r="S13">
-        <v>0.1573534399374167</v>
+        <v>0.0938075443478531</v>
       </c>
       <c r="T13">
-        <v>0.1680815526796511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.02856366666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.085691</v>
-      </c>
-      <c r="I14">
-        <v>0.09723983484513468</v>
-      </c>
-      <c r="J14">
-        <v>0.1342309108140072</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>3.5537505</v>
-      </c>
-      <c r="N14">
-        <v>7.107501</v>
-      </c>
-      <c r="O14">
-        <v>0.06158978841018559</v>
-      </c>
-      <c r="P14">
-        <v>0.04765892007993501</v>
-      </c>
-      <c r="Q14">
-        <v>0.1015081446985</v>
-      </c>
-      <c r="R14">
-        <v>0.609048868191</v>
-      </c>
-      <c r="S14">
-        <v>0.005988980853153237</v>
-      </c>
-      <c r="T14">
-        <v>0.006397300250741655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.02856366666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.085691</v>
-      </c>
-      <c r="I15">
-        <v>0.09723983484513468</v>
-      </c>
-      <c r="J15">
-        <v>0.1342309108140072</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>13.32522833333333</v>
-      </c>
-      <c r="N15">
-        <v>39.975685</v>
-      </c>
-      <c r="O15">
-        <v>0.2309385516983846</v>
-      </c>
-      <c r="P15">
-        <v>0.2680545492087383</v>
-      </c>
-      <c r="Q15">
-        <v>0.3806173803705556</v>
-      </c>
-      <c r="R15">
-        <v>3.425556423335</v>
-      </c>
-      <c r="S15">
-        <v>0.02245642662652551</v>
-      </c>
-      <c r="T15">
-        <v>0.03598120628812706</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.02856366666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.085691</v>
-      </c>
-      <c r="I16">
-        <v>0.09723983484513468</v>
-      </c>
-      <c r="J16">
-        <v>0.1342309108140072</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>7.017941</v>
-      </c>
-      <c r="N16">
-        <v>21.053823</v>
-      </c>
-      <c r="O16">
-        <v>0.1216274190507089</v>
-      </c>
-      <c r="P16">
-        <v>0.1411751426744924</v>
-      </c>
-      <c r="Q16">
-        <v>0.2004581274103334</v>
-      </c>
-      <c r="R16">
-        <v>1.804123146693</v>
-      </c>
-      <c r="S16">
-        <v>0.01182703014113092</v>
-      </c>
-      <c r="T16">
-        <v>0.01895006798549454</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.02856366666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.085691</v>
-      </c>
-      <c r="I17">
-        <v>0.09723983484513468</v>
-      </c>
-      <c r="J17">
-        <v>0.1342309108140072</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>20.4145605</v>
-      </c>
-      <c r="N17">
-        <v>40.829121</v>
-      </c>
-      <c r="O17">
-        <v>0.3538032458052225</v>
-      </c>
-      <c r="P17">
-        <v>0.2737772129294102</v>
-      </c>
-      <c r="Q17">
-        <v>0.5831147012685001</v>
-      </c>
-      <c r="R17">
-        <v>3.498688207611</v>
-      </c>
-      <c r="S17">
-        <v>0.03440376918977243</v>
-      </c>
-      <c r="T17">
-        <v>0.03674936465163513</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.02856366666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.085691</v>
-      </c>
-      <c r="I18">
-        <v>0.09723983484513468</v>
-      </c>
-      <c r="J18">
-        <v>0.1342309108140072</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>2.406654</v>
-      </c>
-      <c r="N18">
-        <v>7.219962000000001</v>
-      </c>
-      <c r="O18">
-        <v>0.04170954337861558</v>
-      </c>
-      <c r="P18">
-        <v>0.04841302054521945</v>
-      </c>
-      <c r="Q18">
-        <v>0.068742862638</v>
-      </c>
-      <c r="R18">
-        <v>0.6186857637420001</v>
-      </c>
-      <c r="S18">
-        <v>0.00405582910960256</v>
-      </c>
-      <c r="T18">
-        <v>0.006498523843042051</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.02856366666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.085691</v>
-      </c>
-      <c r="I19">
-        <v>0.09723983484513468</v>
-      </c>
-      <c r="J19">
-        <v>0.1342309108140072</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>10.98218566666667</v>
-      </c>
-      <c r="N19">
-        <v>32.946557</v>
-      </c>
-      <c r="O19">
-        <v>0.1903314516568828</v>
-      </c>
-      <c r="P19">
-        <v>0.2209211545622045</v>
-      </c>
-      <c r="Q19">
-        <v>0.3136914906541111</v>
-      </c>
-      <c r="R19">
-        <v>2.823223415887</v>
-      </c>
-      <c r="S19">
-        <v>0.01850779892495001</v>
-      </c>
-      <c r="T19">
-        <v>0.02965444779496678</v>
+        <v>0.1062733178461981</v>
       </c>
     </row>
   </sheetData>
